--- a/data/SM4998.distribution.xlsx
+++ b/data/SM4998.distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingzili\Documents\seq_tutorials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0495A63A-DA85-4350-95E6-B30E629C135E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D942EF-320B-41C2-B9B9-A0986446EBA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{35C7999F-4E7A-4B3D-873B-891AA1EED662}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35C7999F-4E7A-4B3D-873B-891AA1EED662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Group</t>
   </si>
@@ -80,12 +81,6 @@
   </si>
   <si>
     <t>TES_down_10kb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TES_down_5kb                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TES_down_10kb  </t>
   </si>
   <si>
     <t>Per_Assigned_Tag</t>
@@ -133,9 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,279 +356,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92954969-5990-439B-B8EC-8B0685D41DB8}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>37040531</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12559</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2/SUM($C$2:$C$11)</f>
+        <v>1.6437900754816256E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>27451902</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3925</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E11" si="0">C3/SUM($C$2:$C$11)</f>
+        <v>5.1372530028389049E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43229733</v>
+      </c>
+      <c r="C4" s="1">
+        <v>97121</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12711723538566044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1102684830</v>
+      </c>
+      <c r="C5" s="1">
+        <v>201764</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26407967257701626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23760388</v>
+      </c>
+      <c r="C6" s="1">
+        <v>258</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3768440120571653E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>107635868</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1062</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3900032328700426E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>195017498</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1581</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0692985980861932E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26187524</v>
+      </c>
+      <c r="C9" s="1">
+        <v>135364</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17717174916593262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>112519854</v>
+      </c>
+      <c r="C10" s="1">
+        <v>154262</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20190647712711723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>198813258</v>
+      </c>
+      <c r="C11" s="1">
+        <v>156131</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E11" s="2">
+        <f>C11/SUM($C$2:$C$11)</f>
+        <v>0.20435272575445632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM(E2:E4)</f>
+        <v>0.14869238914331562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>39184887</v>
-      </c>
-      <c r="C2">
-        <v>2236</v>
-      </c>
-      <c r="D2">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2/461048</f>
-        <v>4.8498204091547955E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>37214570</v>
-      </c>
-      <c r="C3">
-        <v>4882</v>
-      </c>
-      <c r="D3">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E13" si="0">C3/461048</f>
-        <v>1.0588919158091998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>58010731</v>
-      </c>
-      <c r="C4">
-        <v>3416</v>
-      </c>
-      <c r="D4">
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4092068504797767E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1539911688</v>
-      </c>
-      <c r="C5">
-        <v>372090</v>
-      </c>
-      <c r="D5">
-        <v>0.24</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80705262792594268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>24518972</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1712446426402458E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>110212503</v>
-      </c>
-      <c r="C7">
-        <v>3863</v>
-      </c>
-      <c r="D7">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3787371379986462E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>201827137</v>
-      </c>
-      <c r="C8">
-        <v>77612</v>
-      </c>
-      <c r="D8">
-        <v>0.38</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16833822074924953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>27333233</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3379431208897988E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>118264548</v>
-      </c>
-      <c r="C10">
-        <v>483</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0476132636948864E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>210002921</v>
-      </c>
-      <c r="C11">
-        <v>812</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7612049070812584E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>118264548</v>
-      </c>
-      <c r="C12">
-        <v>483</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0476132636948864E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>210002921</v>
-      </c>
-      <c r="C13">
-        <v>812</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7612049070812584E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="2">
+        <f>E5</f>
+        <v>0.26407967257701626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1">
-        <f>SUM(E2:E4)</f>
-        <v>2.284794641772657E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1">
-        <f>SUM(E5)</f>
-        <v>0.80705262792594268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1">
-        <f>SUM(E6:E13)</f>
-        <v>0.18249509812427336</v>
+      <c r="E14" s="2">
+        <f>SUM(E6:E11)</f>
+        <v>0.58722793827966813</v>
       </c>
     </row>
   </sheetData>
